--- a/registration_center.xlsx
+++ b/registration_center.xlsx
@@ -698,7 +698,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -731,6 +731,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4254,6 +4258,1179 @@
         <v>39</v>
       </c>
     </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
